--- a/biology/Origine et évolution du vivant/Classification_phylogénétique_de_Guillaume_Lecointre_et_Hervé_Le_Guyader_(première_édition)/Classification_phylogénétique_de_Guillaume_Lecointre_et_Hervé_Le_Guyader_(première_édition).xlsx
+++ b/biology/Origine et évolution du vivant/Classification_phylogénétique_de_Guillaume_Lecointre_et_Hervé_Le_Guyader_(première_édition)/Classification_phylogénétique_de_Guillaume_Lecointre_et_Hervé_Le_Guyader_(première_édition).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Classification_phylog%C3%A9n%C3%A9tique_de_Guillaume_Lecointre_et_Herv%C3%A9_Le_Guyader_(premi%C3%A8re_%C3%A9dition)</t>
+          <t>Classification_phylogénétique_de_Guillaume_Lecointre_et_Hervé_Le_Guyader_(première_édition)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cet article propose simplement l'arbre phylogénétique du vivant, tel qu'il résulte de la mise ensemble des arbres se trouvant dans la première édition du livre Classification phylogénétique du vivant. Il ne comporte pas les groupes uniquement fossiles. Aux yeux des auteurs, il est obsolète, puisque modifié dans les éditions postérieures.
